--- a/src/main/resources/Sample001.xlsx
+++ b/src/main/resources/Sample001.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>操作</t>
     <rPh sb="0" eb="2">
@@ -96,10 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PRESSENTER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>input again</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -124,14 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SENDKEYS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXISTS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HOGEHOGE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,13 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IMAGECAPTURE</t>
-  </si>
-  <si>
-    <t>C:\eclipse4.6\pleiades\workspace\jgs\temp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>USER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,13 +136,41 @@
   </si>
   <si>
     <t>DBPATH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEND_KEYS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMAGE_CAPTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRESS_ENTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D:\temp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT_EXIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRESS_ENTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEND_KEYS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,12 +230,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -269,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,9 +313,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +365,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,20 +560,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -537,27 +582,27 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -577,9 +622,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -591,23 +636,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -621,15 +666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -638,15 +683,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -666,9 +711,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -680,9 +725,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -691,35 +736,35 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -727,18 +772,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>